--- a/CS_amazon.xlsx
+++ b/CS_amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristinasandoval/Desktop/100319_EXCEL_ex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristinasandoval/Desktop/EXCEL_ex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D026DF6-73EE-7848-A56E-5AE39C1FDCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B08286E-0764-2842-A225-0B1DA1712E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="5060" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{09650164-32A5-5E41-B315-3AC4BDEF06DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon-1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -172,20 +172,14 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2"/>
@@ -194,11 +188,18 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -545,34 +546,34 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="19">
         <v>135987</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19">
         <v>177866</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19">
         <v>232887</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
@@ -585,201 +586,201 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="19">
         <v>88265</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19">
         <v>111934</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19">
         <v>139156</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="19">
         <v>7233</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
         <v>10069</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
         <v>13814</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="19">
         <f>B14-B8-B6</f>
         <v>36303</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19">
         <f>E14-E8-E6</f>
         <v>51757</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19">
         <f>H14-H8-H6</f>
         <v>67496</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="19">
         <v>131801</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
         <v>173760</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19">
         <v>220466</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="19">
         <v>4186</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19">
         <v>4106</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19">
         <v>12421</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3"/>
@@ -793,26 +794,26 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3"/>
@@ -826,26 +827,26 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3"/>
@@ -859,57 +860,150 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -928,99 +1022,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1031,7 +1032,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1051,315 +1052,315 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9">
         <v>2016</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>2017</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>2018</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>2019</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>135987</v>
       </c>
-      <c r="C3" s="16">
-        <f>(D3-B3)/B3</f>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C8" si="0">(D3-B3)/B3</f>
         <v>0.30796326119408474</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>177866</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>0.30933961521594899</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <v>1.3763540218643677E-3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>232887</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <v>0.31071596923781336</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="14">
         <f>G3+(G3*H3)</f>
         <v>305248.70992788661</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <f>H3+F3</f>
         <v>0.31209232325967773</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <f>I3*(1+J3)</f>
         <v>400514.48898130021</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>88265</v>
       </c>
-      <c r="C4" s="16">
-        <f>(D4-B4)/B4</f>
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
         <v>0.26815838667648556</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>111934</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>0.24319688387799954</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <v>-2.4961502798486024E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>139156</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="13">
         <v>0.21823538107951351</v>
       </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:I8" si="0">G4+(G4*H4)</f>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:I8" si="1">G4+(G4*H4)</f>
         <v>169524.76268950079</v>
       </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J8" si="1">H4+F4</f>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J7" si="2">H4+F4</f>
         <v>0.19327387828102749</v>
       </c>
-      <c r="K4" s="19">
-        <f t="shared" ref="K4:K7" si="2">I4*(1+J4)</f>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K7" si="3">I4*(1+J4)</f>
         <v>202289.47103917142</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>7233</v>
       </c>
-      <c r="C5" s="16">
-        <f>(D5-B5)/B5</f>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
         <v>0.39209180146550532</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>10069</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>0.37193365776144605</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <v>-2.0158143704059273E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>13814</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>0.35177551405738677</v>
       </c>
-      <c r="I5" s="20">
-        <f t="shared" si="0"/>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
         <v>18673.42695118874</v>
       </c>
-      <c r="J5" s="17">
-        <f t="shared" si="1"/>
+      <c r="J5" s="13">
+        <f t="shared" si="2"/>
         <v>0.3316173703533275</v>
       </c>
-      <c r="K5" s="19">
-        <f t="shared" si="2"/>
+      <c r="K5" s="15">
+        <f t="shared" si="3"/>
         <v>24865.859692226906</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f>B7-B5-B4</f>
         <v>36303</v>
       </c>
-      <c r="C6" s="16">
-        <f>(D6-B6)/B6</f>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
         <v>0.42569484615596509</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <f>D7-D5-D4</f>
         <v>51757</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>0.30409413219467896</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>-0.12160071396128613</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <f>G7-G5-G4</f>
         <v>67496</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <v>0.18249341823339282</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
+        <f t="shared" si="1"/>
+        <v>79813.575757081082</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="2"/>
+        <v>6.089270427210669E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="3"/>
+        <v>84673.640222556409</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="19" thickTop="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>131801</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>79813.575757081082</v>
-      </c>
-      <c r="J6" s="17">
+        <v>0.31835115059825037</v>
+      </c>
+      <c r="D7" s="11">
+        <v>173760</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.26879604051565376</v>
+      </c>
+      <c r="F7" s="12">
+        <v>-4.955511008259661E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>220466</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.21924093043305715</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>6.089270427210669E-2</v>
-      </c>
-      <c r="K6" s="19">
+        <v>268801.17096885439</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
-        <v>84673.640222556409</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15">
-        <v>131801</v>
-      </c>
-      <c r="C7" s="16">
-        <f>(D7-B7)/B7</f>
-        <v>0.31835115059825037</v>
-      </c>
-      <c r="D7" s="15">
-        <v>173760</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.26879604051565376</v>
-      </c>
-      <c r="F7" s="16">
-        <v>-4.955511008259661E-2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>220466</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.21924093043305715</v>
-      </c>
-      <c r="I7" s="18">
+        <v>0.16968582035046054</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="3"/>
+        <v>314412.91817586886</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="19" thickTop="1" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4186</v>
+      </c>
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>268801.17096885439</v>
-      </c>
-      <c r="J7" s="17">
+        <v>-1.9111323459149548E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4106</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.02508524111057</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2.0441965645697193</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12421</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2.04</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
-        <v>0.16968582035046054</v>
-      </c>
-      <c r="K7" s="19">
-        <f t="shared" si="2"/>
-        <v>314412.91817586886</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="19" thickTop="1" thickBot="1">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15">
-        <v>4186</v>
-      </c>
-      <c r="C8" s="16">
-        <f>(D8-B8)/B8</f>
-        <v>-1.9111323459149548E-2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>4106</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.02508524111057</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2.0441965645697193</v>
-      </c>
-      <c r="G8" s="15">
-        <v>12421</v>
-      </c>
-      <c r="H8" s="17">
+        <v>37759.839999999997</v>
+      </c>
+      <c r="J8" s="13">
         <v>2.04</v>
       </c>
-      <c r="I8" s="20">
-        <f t="shared" si="0"/>
-        <v>37759.839999999997</v>
-      </c>
-      <c r="J8" s="17">
-        <v>2.04</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <f>I8*(1+J8)</f>
         <v>114789.91359999999</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="17" thickTop="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:14">
@@ -1371,32 +1372,32 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="16" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="119">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="4"/>
@@ -1409,25 +1410,25 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:13">
@@ -1442,78 +1443,65 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="I13:I14"/>
@@ -1528,15 +1516,31 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>